--- a/SuppXLS/Scen_RAMPING.xlsx
+++ b/SuppXLS/Scen_RAMPING.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://institutesustainableenergy.sharepoint.com/sites/TIMES_Veda/Shared Documents/General/8760 - Model Student Team/SuppXLS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="100" documentId="13_ncr:1_{B8FE921A-4E04-4537-8959-8E654DDA1A3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{60265468-F7D4-4CC0-A184-595D7348524E}"/>
+  <xr:revisionPtr revIDLastSave="110" documentId="13_ncr:1_{B8FE921A-4E04-4537-8959-8E654DDA1A3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5DBC835B-CEC7-4F31-B820-4A0F87FEBEC8}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{35EB5FB9-ADBF-4B52-B095-6CD42D6E6171}"/>
+    <workbookView xWindow="-83" yWindow="0" windowWidth="13156" windowHeight="13043" xr2:uid="{35EB5FB9-ADBF-4B52-B095-6CD42D6E6171}"/>
   </bookViews>
   <sheets>
     <sheet name="INS" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="44">
   <si>
     <t>~TFM_INS</t>
   </si>
@@ -168,9 +168,6 @@
   </si>
   <si>
     <t>https://iea-etsap.org/forum/archive/index.php?thread-96.html</t>
-  </si>
-  <si>
-    <t>ACT_DNS</t>
   </si>
 </sst>
 </file>
@@ -392,21 +389,21 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="3" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="Per cent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -469,16 +466,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>660033</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>193149</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>255841</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>60628</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>40728</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>78013</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>597319</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>31631</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -501,8 +498,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6427950" y="2098149"/>
-          <a:ext cx="5791171" cy="3997245"/>
+          <a:off x="8101128" y="3208019"/>
+          <a:ext cx="5688730" cy="4019542"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -833,22 +830,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FF9BD2D-72FB-4565-80A2-F2F6AE8E39BF}">
   <dimension ref="B2:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="84" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="3.453125" customWidth="1"/>
-    <col min="2" max="2" width="17.54296875" customWidth="1"/>
-    <col min="3" max="3" width="24.453125" customWidth="1"/>
-    <col min="4" max="4" width="11.453125" customWidth="1"/>
-    <col min="5" max="5" width="25.6328125" customWidth="1"/>
-    <col min="6" max="6" width="31.81640625" customWidth="1"/>
-    <col min="7" max="7" width="42.453125" customWidth="1"/>
+    <col min="1" max="1" width="3.46484375" customWidth="1"/>
+    <col min="2" max="2" width="17.53125" customWidth="1"/>
+    <col min="3" max="3" width="24.46484375" customWidth="1"/>
+    <col min="4" max="4" width="11.46484375" customWidth="1"/>
+    <col min="5" max="5" width="25.6640625" customWidth="1"/>
+    <col min="6" max="6" width="31.796875" customWidth="1"/>
+    <col min="7" max="7" width="42.46484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:7" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -856,7 +853,7 @@
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="2:7" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:7" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -869,11 +866,11 @@
       <c r="E3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="G3" s="18" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="2:7" ht="25" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:7" ht="25.5" x14ac:dyDescent="0.45">
       <c r="B4" s="5" t="s">
         <v>5</v>
       </c>
@@ -890,20 +887,20 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="2:7" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="18" t="s">
+    <row r="5" spans="2:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B5" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
       <c r="G5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="2:7" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" t="s">
-        <v>44</v>
+    <row r="6" spans="2:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B6" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>12</v>
@@ -915,9 +912,9 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="7" spans="2:7" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="4" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>16</v>
@@ -929,9 +926,9 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="8" spans="2:7" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="3" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>17</v>
@@ -943,9 +940,9 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="9" spans="2:7" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B9" s="9" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>18</v>
@@ -957,15 +954,15 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="10" spans="2:7" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="20" t="s">
+    <row r="10" spans="2:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B10" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-    </row>
-    <row r="11" spans="2:7" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+    </row>
+    <row r="11" spans="2:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B11" s="3" t="s">
         <v>11</v>
       </c>
@@ -979,7 +976,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="12" spans="2:7" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B12" s="9" t="s">
         <v>11</v>
       </c>
@@ -993,7 +990,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="13" spans="2:7" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B13" s="12" t="s">
         <v>11</v>
       </c>
@@ -1007,7 +1004,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="14" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B14" s="11" t="s">
         <v>11</v>
       </c>
@@ -1017,11 +1014,11 @@
       <c r="D14" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="21">
+      <c r="E14" s="19">
         <v>0.1</v>
       </c>
     </row>
-    <row r="19" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:6" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B19" s="14" t="s">
         <v>19</v>
       </c>
@@ -1038,7 +1035,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:6" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B20" s="14" t="s">
         <v>23</v>
       </c>
@@ -1055,7 +1052,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="2:6" ht="58" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:6" ht="57" x14ac:dyDescent="0.45">
       <c r="B21" s="14" t="s">
         <v>27</v>
       </c>
@@ -1072,7 +1069,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:6" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B22" s="14" t="s">
         <v>31</v>
       </c>
@@ -1087,7 +1084,7 @@
       </c>
       <c r="F22" s="16"/>
     </row>
-    <row r="23" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:6" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B23" s="14" t="s">
         <v>35</v>
       </c>
@@ -1117,6 +1114,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100594B9D139668E742805735A3EA21C043" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ee5283bd4de284755c00ee06b3de838c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3355bc15-3803-43c6-99c3-19930f83c70c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="641c50331f870266fddd248c345d606f" ns2:_="">
     <xsd:import namespace="3355bc15-3803-43c6-99c3-19930f83c70c"/>
@@ -1260,15 +1266,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -1276,6 +1273,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1660955A-CA10-4D74-BB1F-E0B82937DD09}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DA6A3177-F6C6-41E2-89EC-38710D90E004}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1293,26 +1298,18 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1660955A-CA10-4D74-BB1F-E0B82937DD09}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41152C3D-6DE0-4F34-A940-A4BF8AE23E29}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="3355bc15-3803-43c6-99c3-19930f83c70c"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/SuppXLS/Scen_RAMPING.xlsx
+++ b/SuppXLS/Scen_RAMPING.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://institutesustainableenergy.sharepoint.com/sites/TIMES_Veda/Shared Documents/General/8760 - Model Student Team/SuppXLS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="110" documentId="13_ncr:1_{B8FE921A-4E04-4537-8959-8E654DDA1A3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5DBC835B-CEC7-4F31-B820-4A0F87FEBEC8}"/>
+  <xr:revisionPtr revIDLastSave="113" documentId="13_ncr:1_{B8FE921A-4E04-4537-8959-8E654DDA1A3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3E925A9F-CBEC-4A85-BB96-A515FE088C73}"/>
   <bookViews>
-    <workbookView xWindow="-83" yWindow="0" windowWidth="13156" windowHeight="13043" xr2:uid="{35EB5FB9-ADBF-4B52-B095-6CD42D6E6171}"/>
+    <workbookView xWindow="-83" yWindow="0" windowWidth="12060" windowHeight="13043" xr2:uid="{35EB5FB9-ADBF-4B52-B095-6CD42D6E6171}"/>
   </bookViews>
   <sheets>
     <sheet name="INS" sheetId="1" r:id="rId1"/>
@@ -358,7 +358,7 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -399,6 +399,7 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -831,7 +832,7 @@
   <dimension ref="B2:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -894,7 +895,7 @@
       <c r="C5" s="20"/>
       <c r="D5" s="20"/>
       <c r="E5" s="20"/>
-      <c r="G5" t="s">
+      <c r="G5" s="22" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1107,19 +1108,17 @@
   <hyperlinks>
     <hyperlink ref="F20" r:id="rId1" xr:uid="{7C6B1948-5A38-4D39-BA69-1D27AE7386EC}"/>
     <hyperlink ref="F21" r:id="rId2" xr:uid="{B95681C4-D4A4-42C6-9AE6-DEB731629895}"/>
+    <hyperlink ref="G5" r:id="rId3" xr:uid="{A41A4548-CEFF-4DF4-91B1-DC2218FFA271}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId3"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1267,15 +1266,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1660955A-CA10-4D74-BB1F-E0B82937DD09}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41152C3D-6DE0-4F34-A940-A4BF8AE23E29}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="3355bc15-3803-43c6-99c3-19930f83c70c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1299,17 +1309,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41152C3D-6DE0-4F34-A940-A4BF8AE23E29}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1660955A-CA10-4D74-BB1F-E0B82937DD09}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="3355bc15-3803-43c6-99c3-19930f83c70c"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/SuppXLS/Scen_RAMPING.xlsx
+++ b/SuppXLS/Scen_RAMPING.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://institutesustainableenergy.sharepoint.com/sites/TIMES_Veda/Shared Documents/General/8760 - Model Student Team/SuppXLS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="113" documentId="13_ncr:1_{B8FE921A-4E04-4537-8959-8E654DDA1A3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3E925A9F-CBEC-4A85-BB96-A515FE088C73}"/>
+  <xr:revisionPtr revIDLastSave="159" documentId="13_ncr:1_{B8FE921A-4E04-4537-8959-8E654DDA1A3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1BB5DB83-1192-4741-90E8-11F1BD1423B3}"/>
   <bookViews>
-    <workbookView xWindow="-83" yWindow="0" windowWidth="12060" windowHeight="13043" xr2:uid="{35EB5FB9-ADBF-4B52-B095-6CD42D6E6171}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{35EB5FB9-ADBF-4B52-B095-6CD42D6E6171}"/>
   </bookViews>
   <sheets>
     <sheet name="INS" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="74">
   <si>
     <t>~TFM_INS</t>
   </si>
@@ -74,9 +74,6 @@
     <t>ACT_UPS</t>
   </si>
   <si>
-    <t>PP_N_GAS</t>
-  </si>
-  <si>
     <t>LO</t>
   </si>
   <si>
@@ -86,15 +83,6 @@
     <t>UP</t>
   </si>
   <si>
-    <t>PP_OIL</t>
-  </si>
-  <si>
-    <t>PP_DIESEL</t>
-  </si>
-  <si>
-    <t>PP_W_INC</t>
-  </si>
-  <si>
     <t>Plant Type</t>
   </si>
   <si>
@@ -168,13 +156,115 @@
   </si>
   <si>
     <t>https://iea-etsap.org/forum/archive/index.php?thread-96.html</t>
+  </si>
+  <si>
+    <t>PP_N_GAS_N4</t>
+  </si>
+  <si>
+    <t>PP_N_GAS_N22</t>
+  </si>
+  <si>
+    <t>PP_OIL_N4</t>
+  </si>
+  <si>
+    <t>PP_OIL_N22</t>
+  </si>
+  <si>
+    <t>PP_DIESEL_N4</t>
+  </si>
+  <si>
+    <t>PP_DIESEL_N22</t>
+  </si>
+  <si>
+    <t>PP_W_INC_N19</t>
+  </si>
+  <si>
+    <t>Plant</t>
+  </si>
+  <si>
+    <t>Capacity (MW)</t>
+  </si>
+  <si>
+    <t>Ramp-Up Rate (%/h)</t>
+  </si>
+  <si>
+    <t>Ramp-Up Time (h)</t>
+  </si>
+  <si>
+    <t>Ramp-Down Rate (%/h)</t>
+  </si>
+  <si>
+    <t>Ramp-Down Time (h)</t>
+  </si>
+  <si>
+    <t>MW Change per Hour</t>
+  </si>
+  <si>
+    <t>0.32</t>
+  </si>
+  <si>
+    <t>3.33</t>
+  </si>
+  <si>
+    <t>4.00</t>
+  </si>
+  <si>
+    <t>0.096</t>
+  </si>
+  <si>
+    <t>0.009</t>
+  </si>
+  <si>
+    <t>0.0027</t>
+  </si>
+  <si>
+    <t>116.9</t>
+  </si>
+  <si>
+    <t>5.00</t>
+  </si>
+  <si>
+    <t>35.98</t>
+  </si>
+  <si>
+    <t>0.001</t>
+  </si>
+  <si>
+    <t>0.0004</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>10.00</t>
+  </si>
+  <si>
+    <t>0.2</t>
+  </si>
+  <si>
+    <t>6.67</t>
+  </si>
+  <si>
+    <t>17.535</t>
+  </si>
+  <si>
+    <t>5.397</t>
+  </si>
+  <si>
+    <t>0.0002</t>
+  </si>
+  <si>
+    <t>0.00008</t>
+  </si>
+  <si>
+    <t>https://www.researchgate.net/figure/Typical-Generator-Ramp-Rates-and-Start-up-Shut-down-Costs_tbl1_317142861</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -232,8 +322,13 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -255,12 +350,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFCCFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -289,7 +378,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -352,33 +441,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="3" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="3" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="3" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="3" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -392,19 +487,33 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="3" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Per cent" xfId="1" builtinId="5"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -423,16 +532,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>82551</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>173735</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1533979</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>143630</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>345598</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>297853</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>45358</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -455,8 +564,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="82551" y="6580885"/>
-          <a:ext cx="11826397" cy="2791715"/>
+          <a:off x="9524396" y="10485059"/>
+          <a:ext cx="5824469" cy="1353156"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -468,19 +577,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>255841</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>60628</xdr:rowOff>
+      <xdr:colOff>482627</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>105985</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>597319</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>31631</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>344174</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>143472</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
+        <xdr:cNvPr id="4" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E8DC00D-4092-05FD-0714-6C66EF6A9D9C}"/>
@@ -499,8 +608,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8101128" y="3208019"/>
-          <a:ext cx="5688730" cy="4019542"/>
+          <a:off x="8473044" y="4120092"/>
+          <a:ext cx="5697499" cy="3998678"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -510,6 +619,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -829,24 +942,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FF9BD2D-72FB-4565-80A2-F2F6AE8E39BF}">
-  <dimension ref="B2:G23"/>
+  <dimension ref="B2:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" zoomScale="84" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.46484375" customWidth="1"/>
-    <col min="2" max="2" width="17.53125" customWidth="1"/>
-    <col min="3" max="3" width="24.46484375" customWidth="1"/>
-    <col min="4" max="4" width="11.46484375" customWidth="1"/>
-    <col min="5" max="5" width="25.6640625" customWidth="1"/>
-    <col min="6" max="6" width="31.796875" customWidth="1"/>
-    <col min="7" max="7" width="42.46484375" customWidth="1"/>
+    <col min="1" max="1" width="3.453125" customWidth="1"/>
+    <col min="2" max="2" width="17.54296875" customWidth="1"/>
+    <col min="3" max="3" width="24.453125" customWidth="1"/>
+    <col min="4" max="4" width="11.453125" customWidth="1"/>
+    <col min="5" max="5" width="25.6328125" customWidth="1"/>
+    <col min="6" max="6" width="31.81640625" customWidth="1"/>
+    <col min="7" max="7" width="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="2:7" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -854,7 +967,7 @@
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="2:7" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="2:7" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -867,247 +980,518 @@
       <c r="E3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="G3" s="15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="25" x14ac:dyDescent="0.35">
+      <c r="B4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="G5" s="17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="10">
+        <v>0.25</v>
+      </c>
+      <c r="G6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="8">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="9" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="4" spans="2:7" ht="25.5" x14ac:dyDescent="0.45">
-      <c r="B4" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="G5" s="22" t="s">
+      <c r="D8" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="10">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="6" spans="2:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="3" t="s">
+      <c r="D9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="8">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C10" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="E10" s="10">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="8">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="10">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="7">
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+    </row>
+    <row r="14" spans="2:7" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="6">
         <v>0.3</v>
       </c>
     </row>
-    <row r="7" spans="2:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="4" t="s">
+    <row r="15" spans="2:7" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C15" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="8">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="6">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="8">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="10">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" s="8">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B20" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="22">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="B25" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="10">
+      <c r="D25" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B26" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F26" s="14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="B27" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F27" s="14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="B28" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F28" s="13"/>
+    </row>
+    <row r="29" spans="2:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="B29" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F29" s="13"/>
+    </row>
+    <row r="32" spans="2:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B32" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="D32" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="E32" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="F32" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="G32" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="H32" s="25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B33" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="D33" s="27">
+        <v>0.3</v>
+      </c>
+      <c r="E33" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="F33" s="27">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="8" spans="2:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="13">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="10">
+      <c r="G33" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="H33" s="26" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B34" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="C34" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="D34" s="27">
+        <v>0.3</v>
+      </c>
+      <c r="E34" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="F34" s="27">
+        <v>0.25</v>
+      </c>
+      <c r="G34" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="H34" s="26" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B35" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="C35" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="D35" s="27">
+        <v>0.15</v>
+      </c>
+      <c r="E35" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="F35" s="27">
+        <v>0.15</v>
+      </c>
+      <c r="G35" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="H35" s="26" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B36" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="C36" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="D36" s="27">
+        <v>0.15</v>
+      </c>
+      <c r="E36" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="F36" s="27">
+        <v>0.15</v>
+      </c>
+      <c r="G36" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="H36" s="26" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B37" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C37" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="D37" s="27">
+        <v>0.2</v>
+      </c>
+      <c r="E37" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="F37" s="27">
+        <v>0.2</v>
+      </c>
+      <c r="G37" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="H37" s="26" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B38" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="C38" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="D38" s="27">
+        <v>0.2</v>
+      </c>
+      <c r="E38" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="F38" s="27">
+        <v>0.2</v>
+      </c>
+      <c r="G38" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="H38" s="26" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B39" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C39" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="D39" s="27">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="10" spans="2:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-    </row>
-    <row r="11" spans="2:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="7">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="8">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="7">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B14" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="19">
+      <c r="E39" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="F39" s="27">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="19" spans="2:6" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B19" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="F19" s="14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="B20" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D20" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="E20" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="F20" s="17" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" ht="57" x14ac:dyDescent="0.45">
-      <c r="B21" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D21" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="E21" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B22" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="D22" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="E22" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F22" s="16"/>
-    </row>
-    <row r="23" spans="2:6" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B23" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="C23" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="D23" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="E23" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="F23" s="16"/>
+      <c r="G39" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="H39" s="26" t="s">
+        <v>67</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B13:E13"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="F20" r:id="rId1" xr:uid="{7C6B1948-5A38-4D39-BA69-1D27AE7386EC}"/>
-    <hyperlink ref="F21" r:id="rId2" xr:uid="{B95681C4-D4A4-42C6-9AE6-DEB731629895}"/>
+    <hyperlink ref="F26" r:id="rId1" xr:uid="{7C6B1948-5A38-4D39-BA69-1D27AE7386EC}"/>
+    <hyperlink ref="F27" r:id="rId2" xr:uid="{B95681C4-D4A4-42C6-9AE6-DEB731629895}"/>
     <hyperlink ref="G5" r:id="rId3" xr:uid="{A41A4548-CEFF-4DF4-91B1-DC2218FFA271}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1116,12 +1500,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100594B9D139668E742805735A3EA21C043" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ee5283bd4de284755c00ee06b3de838c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3355bc15-3803-43c6-99c3-19930f83c70c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="641c50331f870266fddd248c345d606f" ns2:_="">
     <xsd:import namespace="3355bc15-3803-43c6-99c3-19930f83c70c"/>
@@ -1265,7 +1643,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -1274,23 +1652,13 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41152C3D-6DE0-4F34-A940-A4BF8AE23E29}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="3355bc15-3803-43c6-99c3-19930f83c70c"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DA6A3177-F6C6-41E2-89EC-38710D90E004}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1308,10 +1676,26 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1660955A-CA10-4D74-BB1F-E0B82937DD09}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41152C3D-6DE0-4F34-A940-A4BF8AE23E29}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="3355bc15-3803-43c6-99c3-19930f83c70c"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>